--- a/data/trans_orig/P43E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43E_R-Edad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>130057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117610</v>
+        <v>120109</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140253</v>
+        <v>140534</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7815308017760524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7067350350016789</v>
+        <v>0.7217503288269759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.842799078771163</v>
+        <v>0.8444914293508621</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>36356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26160</v>
+        <v>25879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48803</v>
+        <v>46304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2184691982239476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1572009212288369</v>
+        <v>0.1555085706491379</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2932649649983199</v>
+        <v>0.278249671173024</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>322754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>302331</v>
+        <v>302908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>341712</v>
+        <v>340369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7312837970260562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6850092280135095</v>
+        <v>0.6863178738263098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7742373017631753</v>
+        <v>0.7711946209976124</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>118599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>99641</v>
+        <v>100984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139022</v>
+        <v>138445</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2687162029739439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2257626982368244</v>
+        <v>0.2288053790023876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3149907719864903</v>
+        <v>0.3136821261736902</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>418417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>398490</v>
+        <v>399310</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>439790</v>
+        <v>443002</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7354457113477278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7004197267850715</v>
+        <v>0.7018616717167194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7730117335251496</v>
+        <v>0.7786588024713682</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>150513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>129140</v>
+        <v>125928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170440</v>
+        <v>169620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2645542886522722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2269882664748504</v>
+        <v>0.221341197528632</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2995802732149286</v>
+        <v>0.2981383282832807</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>365235</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>341774</v>
+        <v>345474</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>382374</v>
+        <v>385428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7568268909109973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7082114158227595</v>
+        <v>0.7158800074783472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7923421837384511</v>
+        <v>0.7986706378966999</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>117352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100213</v>
+        <v>97159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140813</v>
+        <v>137113</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2431731090890027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2076578162615489</v>
+        <v>0.2013293621032998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2917885841772414</v>
+        <v>0.2841199925216524</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>251840</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>238129</v>
+        <v>235145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>265396</v>
+        <v>265371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8121606490726985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7679426410938912</v>
+        <v>0.7583199156197847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.85587482711454</v>
+        <v>0.8557946359140153</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>58247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44691</v>
+        <v>44716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71958</v>
+        <v>74942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1878393509273016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.14412517288546</v>
+        <v>0.1442053640859848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.232057358906109</v>
+        <v>0.2416800843802153</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>155969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144510</v>
+        <v>144409</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>163582</v>
+        <v>164152</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8761885458197823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8118201600672914</v>
+        <v>0.8112526942601129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9189599992353947</v>
+        <v>0.9221627584224841</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>22039</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14426</v>
+        <v>13856</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33498</v>
+        <v>33599</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1238114541802176</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08104000076460521</v>
+        <v>0.07783724157751598</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1881798399327083</v>
+        <v>0.1887473057398876</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>87338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78439</v>
+        <v>77761</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93660</v>
+        <v>93109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.859226540104048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7716782548812109</v>
+        <v>0.7650069237319799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9214259454397866</v>
+        <v>0.9160017319183659</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>14309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7987</v>
+        <v>8538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23208</v>
+        <v>23886</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1407734598959521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07857405456021348</v>
+        <v>0.08399826808163403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2283217451187891</v>
+        <v>0.2349930762680198</v>
       </c>
     </row>
     <row r="24">
@@ -1260,19 +1260,19 @@
         <v>1731610</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1688252</v>
+        <v>1689730</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1775493</v>
+        <v>1771015</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7699380370056733</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7506596909798154</v>
+        <v>0.7513167033043509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.789450104007539</v>
+        <v>0.7874592081201731</v>
       </c>
     </row>
     <row r="26">
@@ -1289,19 +1289,19 @@
         <v>517415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>473532</v>
+        <v>478010</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>560773</v>
+        <v>559295</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2300619629943266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.210549895992461</v>
+        <v>0.2125407918798269</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2493403090201847</v>
+        <v>0.2486832966956492</v>
       </c>
     </row>
     <row r="27">
@@ -1472,19 +1472,19 @@
         <v>135091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124176</v>
+        <v>123883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142958</v>
+        <v>142788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.843480986021741</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7753303105984756</v>
+        <v>0.773498911255495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8926027803182912</v>
+        <v>0.8915388442782146</v>
       </c>
     </row>
     <row r="5">
@@ -1501,19 +1501,19 @@
         <v>25068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17201</v>
+        <v>17371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35983</v>
+        <v>36276</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.156519013978259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1073972196817088</v>
+        <v>0.1084611557217855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2246696894015248</v>
+        <v>0.2265010887445052</v>
       </c>
     </row>
     <row r="6">
@@ -1563,19 +1563,19 @@
         <v>292259</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>275893</v>
+        <v>275407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306846</v>
+        <v>306080</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7952430238561606</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7507116369521458</v>
+        <v>0.7493889126883485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8349333796545632</v>
+        <v>0.8328501245214678</v>
       </c>
     </row>
     <row r="8">
@@ -1592,19 +1592,19 @@
         <v>75250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60663</v>
+        <v>61429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91616</v>
+        <v>92102</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2047569761438393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1650666203454378</v>
+        <v>0.1671498754785321</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2492883630478558</v>
+        <v>0.2506110873116515</v>
       </c>
     </row>
     <row r="9">
@@ -1654,19 +1654,19 @@
         <v>400793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>381068</v>
+        <v>382832</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>418356</v>
+        <v>417681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8000362033453867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7606638237161443</v>
+        <v>0.7641849183572865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.835096002043037</v>
+        <v>0.8337469155269512</v>
       </c>
     </row>
     <row r="11">
@@ -1683,19 +1683,19 @@
         <v>100175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82612</v>
+        <v>83287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119900</v>
+        <v>118136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1999637966546133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1649039979569627</v>
+        <v>0.1662530844730487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2393361762838557</v>
+        <v>0.2358150816427134</v>
       </c>
     </row>
     <row r="12">
@@ -1745,19 +1745,19 @@
         <v>400413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>383050</v>
+        <v>380822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>415573</v>
+        <v>414025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8479348415320582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8111650151941768</v>
+        <v>0.8064462083094021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.880037388592227</v>
+        <v>0.8767593092412411</v>
       </c>
     </row>
     <row r="14">
@@ -1774,19 +1774,19 @@
         <v>71809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56649</v>
+        <v>58197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89172</v>
+        <v>91400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1520651584679418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1199626114077731</v>
+        <v>0.1232406907587588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1888349848058232</v>
+        <v>0.1935537916905979</v>
       </c>
     </row>
     <row r="15">
@@ -1836,19 +1836,19 @@
         <v>275874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>262243</v>
+        <v>261917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>289206</v>
+        <v>288111</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8598799072227303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8173946514273807</v>
+        <v>0.8163790386506078</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9014360930480353</v>
+        <v>0.8980225730077693</v>
       </c>
     </row>
     <row r="17">
@@ -1865,19 +1865,19 @@
         <v>44954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31622</v>
+        <v>32717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58585</v>
+        <v>58911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1401200927772697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09856390695196461</v>
+        <v>0.1019774269922307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1826053485726185</v>
+        <v>0.1836209613493922</v>
       </c>
     </row>
     <row r="18">
@@ -1927,19 +1927,19 @@
         <v>177040</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>165439</v>
+        <v>165926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>185751</v>
+        <v>185838</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8755172830811279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8181450762862216</v>
+        <v>0.8205525661663179</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9185968922940776</v>
+        <v>0.9190256854689838</v>
       </c>
     </row>
     <row r="20">
@@ -1956,19 +1956,19 @@
         <v>25172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16461</v>
+        <v>16374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36773</v>
+        <v>36286</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1244827169188722</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08140310770592241</v>
+        <v>0.08097431453101626</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1818549237137781</v>
+        <v>0.1794474338336821</v>
       </c>
     </row>
     <row r="21">
@@ -2018,19 +2018,19 @@
         <v>119167</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109415</v>
+        <v>109355</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125234</v>
+        <v>124849</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9182415978245849</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8430969550938845</v>
+        <v>0.8426375371726856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9649911459253149</v>
+        <v>0.9620239431500557</v>
       </c>
     </row>
     <row r="23">
@@ -2047,19 +2047,19 @@
         <v>10610</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4543</v>
+        <v>4928</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20362</v>
+        <v>20422</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08175840217541507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03500885407468552</v>
+        <v>0.03797605684994431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1569030449061156</v>
+        <v>0.1573624628273142</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>1800635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1762300</v>
+        <v>1764560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1833682</v>
+        <v>1836028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8360761465892808</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8182760564829431</v>
+        <v>0.8193256852691897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.851420511165801</v>
+        <v>0.8525095483326741</v>
       </c>
     </row>
     <row r="26">
@@ -2138,19 +2138,19 @@
         <v>353039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>319992</v>
+        <v>317646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>391374</v>
+        <v>389114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1639238534107192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1485794888341993</v>
+        <v>0.1474904516673259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1817239435170573</v>
+        <v>0.1806743147308115</v>
       </c>
     </row>
     <row r="27">
@@ -2321,19 +2321,19 @@
         <v>32363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23081</v>
+        <v>23124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40137</v>
+        <v>39813</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6752818653682886</v>
+        <v>0.6752818653682885</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4816114016808106</v>
+        <v>0.4825128852755552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8375001919989884</v>
+        <v>0.8307261542564871</v>
       </c>
     </row>
     <row r="5">
@@ -2350,19 +2350,19 @@
         <v>15562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7788</v>
+        <v>8112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24844</v>
+        <v>24801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3247181346317113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1624998080010117</v>
+        <v>0.169273845743513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5183885983191892</v>
+        <v>0.5174871147244448</v>
       </c>
     </row>
     <row r="6">
@@ -2412,19 +2412,19 @@
         <v>140309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126737</v>
+        <v>127101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152747</v>
+        <v>153639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7325149169230841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6616614052217773</v>
+        <v>0.6635622207618683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7974521250932386</v>
+        <v>0.8021082068272135</v>
       </c>
     </row>
     <row r="8">
@@ -2441,19 +2441,19 @@
         <v>51235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38797</v>
+        <v>37905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64807</v>
+        <v>64443</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2674850830769158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2025478749067613</v>
+        <v>0.1978917931727866</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.338338594778223</v>
+        <v>0.3364377792381316</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>210003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195212</v>
+        <v>196080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222867</v>
+        <v>222498</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7246242499763047</v>
+        <v>0.7246242499763046</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6735874515391107</v>
+        <v>0.676585213946607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7690120468152505</v>
+        <v>0.7677400557192258</v>
       </c>
     </row>
     <row r="11">
@@ -2532,19 +2532,19 @@
         <v>79806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66942</v>
+        <v>67311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94597</v>
+        <v>93729</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2753757500236955</v>
+        <v>0.2753757500236954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2309879531847494</v>
+        <v>0.2322599442807743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3264125484608901</v>
+        <v>0.3234147860533932</v>
       </c>
     </row>
     <row r="12">
@@ -2594,19 +2594,19 @@
         <v>262848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249057</v>
+        <v>246688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>277831</v>
+        <v>276132</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6902459760275599</v>
+        <v>0.6902459760275598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6540315180344513</v>
+        <v>0.6478096145072582</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7295925696321452</v>
+        <v>0.7251306094623664</v>
       </c>
     </row>
     <row r="14">
@@ -2623,19 +2623,19 @@
         <v>117955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102972</v>
+        <v>104671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131746</v>
+        <v>134115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3097540239724402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2704074303678545</v>
+        <v>0.2748693905376337</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3459684819655487</v>
+        <v>0.3521903854927417</v>
       </c>
     </row>
     <row r="15">
@@ -2685,19 +2685,19 @@
         <v>244366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>232161</v>
+        <v>232716</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>255018</v>
+        <v>255272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7779857117421722</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7391287547818334</v>
+        <v>0.7408945726097271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8118992867089766</v>
+        <v>0.812706340127891</v>
       </c>
     </row>
     <row r="17">
@@ -2714,19 +2714,19 @@
         <v>69735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59083</v>
+        <v>58829</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81940</v>
+        <v>81385</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2220142882578277</v>
+        <v>0.2220142882578276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1881007132910234</v>
+        <v>0.187293659872109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2608712452181668</v>
+        <v>0.2591054273902728</v>
       </c>
     </row>
     <row r="18">
@@ -2776,19 +2776,19 @@
         <v>178398</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>169835</v>
+        <v>168992</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186541</v>
+        <v>185222</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8270615120718973</v>
+        <v>0.8270615120718972</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7873632800174223</v>
+        <v>0.7834566616842541</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8648138615317857</v>
+        <v>0.8586982731638467</v>
       </c>
     </row>
     <row r="20">
@@ -2805,19 +2805,19 @@
         <v>37303</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29160</v>
+        <v>30479</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45866</v>
+        <v>46709</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1729384879281029</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1351861384682143</v>
+        <v>0.1413017268361532</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2126367199825777</v>
+        <v>0.2165433383157457</v>
       </c>
     </row>
     <row r="21">
@@ -2867,19 +2867,19 @@
         <v>146022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138967</v>
+        <v>138780</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152561</v>
+        <v>151914</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8608288791530336</v>
+        <v>0.8608288791530335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8192352990658642</v>
+        <v>0.8181313126768242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.899373198830416</v>
+        <v>0.8955617446910383</v>
       </c>
     </row>
     <row r="23">
@@ -2896,19 +2896,19 @@
         <v>23608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17069</v>
+        <v>17716</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30663</v>
+        <v>30850</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1391711208469664</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.100626801169584</v>
+        <v>0.1044382553089617</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1807647009341359</v>
+        <v>0.181868687323176</v>
       </c>
     </row>
     <row r="24">
@@ -2958,19 +2958,19 @@
         <v>1214309</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1184780</v>
+        <v>1185126</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1242317</v>
+        <v>1242237</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7544571578083872</v>
+        <v>0.7544571578083874</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.736110788253831</v>
+        <v>0.7363259154922155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7718590144297249</v>
+        <v>0.7718090527775079</v>
       </c>
     </row>
     <row r="26">
@@ -2987,19 +2987,19 @@
         <v>395204</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>367196</v>
+        <v>367276</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>424733</v>
+        <v>424387</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2455428421916127</v>
+        <v>0.2455428421916128</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2281409855702751</v>
+        <v>0.2281909472224918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2638892117461692</v>
+        <v>0.2636740845077846</v>
       </c>
     </row>
     <row r="27">
